--- a/data/calcs/save_calcs/global_std_data.xlsx
+++ b/data/calcs/save_calcs/global_std_data.xlsx
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2021 stds</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2022 stds</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2023 stds</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2024 stds</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
@@ -465,13 +465,13 @@
         <v>2.103094112063749</v>
       </c>
       <c r="C2" t="n">
-        <v>2.093352892354604</v>
+        <v>2.09277672131318</v>
       </c>
       <c r="D2" t="n">
-        <v>2.237451257935055</v>
+        <v>2.236972821555524</v>
       </c>
       <c r="E2" t="n">
-        <v>2.10262136544203</v>
+        <v>2.10352542763909</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         <v>13.68535699683505</v>
       </c>
       <c r="C3" t="n">
-        <v>12.98176776646669</v>
+        <v>12.97923549891196</v>
       </c>
       <c r="D3" t="n">
-        <v>13.27346178487913</v>
+        <v>13.27028011905468</v>
       </c>
       <c r="E3" t="n">
-        <v>12.37232537464984</v>
+        <v>12.3708529057527</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         <v>4.095751951266891</v>
       </c>
       <c r="C4" t="n">
-        <v>4.057831867306229</v>
+        <v>4.056899336615523</v>
       </c>
       <c r="D4" t="n">
-        <v>4.190347498535015</v>
+        <v>4.189146948016854</v>
       </c>
       <c r="E4" t="n">
-        <v>3.955016763462714</v>
+        <v>3.954634125721075</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         <v>4.271800026160637</v>
       </c>
       <c r="C5" t="n">
-        <v>4.261694446119717</v>
+        <v>4.260838190045037</v>
       </c>
       <c r="D5" t="n">
-        <v>4.396228334896221</v>
+        <v>4.395116360286813</v>
       </c>
       <c r="E5" t="n">
-        <v>4.169367298085328</v>
+        <v>4.168971742130561</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.658886613511641</v>
+        <v>1.398315329090978</v>
       </c>
       <c r="C6" t="n">
-        <v>4.229409877221715</v>
+        <v>1.226182245272708</v>
       </c>
       <c r="D6" t="n">
-        <v>4.265143936693594</v>
+        <v>1.265926837711646</v>
       </c>
       <c r="E6" t="n">
-        <v>3.919279985724609</v>
+        <v>1.174725659777613</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         <v>1.0269534838704</v>
       </c>
       <c r="C7" t="n">
-        <v>0.967637171541929</v>
+        <v>0.9678892714594651</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9439661678049719</v>
+        <v>0.9443521491082709</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8980226607241535</v>
+        <v>0.8979769202998196</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         <v>1.0269534838704</v>
       </c>
       <c r="C8" t="n">
-        <v>0.967637171541929</v>
+        <v>0.967889271459465</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9439661678049719</v>
+        <v>0.9443521491082709</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8980226607241535</v>
+        <v>0.8979769202998196</v>
       </c>
     </row>
     <row r="9">
